--- a/result/LR/ws/ws_LR.xlsx
+++ b/result/LR/ws/ws_LR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="16" r:id="rId1"/>
@@ -19,12 +19,8 @@
     <sheet name="ws_3_classic" sheetId="3" r:id="rId5"/>
     <sheet name="ws_3_active" sheetId="4" r:id="rId6"/>
     <sheet name="ws_3_res" sheetId="8" r:id="rId7"/>
-    <sheet name="2_c_sumen_model" sheetId="10" r:id="rId8"/>
-    <sheet name="2_a_sumen_model" sheetId="11" r:id="rId9"/>
-    <sheet name="3_c_sumen_model" sheetId="12" r:id="rId10"/>
-    <sheet name="3_a_sumen_model" sheetId="13" r:id="rId11"/>
-    <sheet name="2_ws_min_limit" sheetId="14" r:id="rId12"/>
-    <sheet name="3_ws_min_limit" sheetId="15" r:id="rId13"/>
+    <sheet name="2_ws_min_limit" sheetId="14" r:id="rId8"/>
+    <sheet name="3_ws_min_limit" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="41">
   <si>
     <t>Presicion</t>
   </si>
@@ -924,2468 +920,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.77285921625544196</v>
-      </c>
-      <c r="C2">
-        <v>0.26338568072214602</v>
-      </c>
-      <c r="D2">
-        <v>0.39288019920686101</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(F2:P2)</f>
-        <v>9.7824757892193456E-2</v>
-      </c>
-      <c r="F2">
-        <v>9.2748070430648699E-2</v>
-      </c>
-      <c r="G2">
-        <v>9.3723778352630002E-2</v>
-      </c>
-      <c r="H2">
-        <v>9.9354218473161199E-2</v>
-      </c>
-      <c r="I2">
-        <v>9.9764790486217503E-2</v>
-      </c>
-      <c r="J2">
-        <v>0.100818467558804</v>
-      </c>
-      <c r="K2">
-        <v>9.9664040237061394E-2</v>
-      </c>
-      <c r="L2">
-        <v>9.9148281204660002E-2</v>
-      </c>
-      <c r="M2">
-        <v>9.6982216935648305E-2</v>
-      </c>
-      <c r="N2">
-        <v>9.9565107625825405E-2</v>
-      </c>
-      <c r="O2">
-        <v>9.4385355508550997E-2</v>
-      </c>
-      <c r="P2">
-        <v>9.9918010000920404E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.77239159250141998</v>
-      </c>
-      <c r="C3">
-        <v>0.26150788562636201</v>
-      </c>
-      <c r="D3">
-        <v>0.39072752526461901</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">AVERAGE(F3:P3)</f>
-        <v>9.4546766966147167E-2</v>
-      </c>
-      <c r="F3">
-        <v>9.1783704604823102E-2</v>
-      </c>
-      <c r="G3">
-        <v>9.0965940050214897E-2</v>
-      </c>
-      <c r="H3">
-        <v>9.3587979532145399E-2</v>
-      </c>
-      <c r="I3">
-        <v>9.9614947195283202E-2</v>
-      </c>
-      <c r="J3">
-        <v>9.7085760002284402E-2</v>
-      </c>
-      <c r="K3">
-        <v>9.4119266267278498E-2</v>
-      </c>
-      <c r="L3">
-        <v>9.5469939921211402E-2</v>
-      </c>
-      <c r="M3">
-        <v>9.2542300642158196E-2</v>
-      </c>
-      <c r="N3">
-        <v>9.9469359606130001E-2</v>
-      </c>
-      <c r="O3">
-        <v>9.0828471839942498E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.73579471065724</v>
-      </c>
-      <c r="C4">
-        <v>0.20887534378948899</v>
-      </c>
-      <c r="D4">
-        <v>0.32538212135247802</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>9.3661149813948061E-2</v>
-      </c>
-      <c r="F4">
-        <v>9.7213454233557303E-2</v>
-      </c>
-      <c r="G4">
-        <v>9.3154892327704394E-2</v>
-      </c>
-      <c r="H4">
-        <v>9.3041926529376998E-2</v>
-      </c>
-      <c r="I4">
-        <v>9.3506233121120802E-2</v>
-      </c>
-      <c r="J4">
-        <v>9.2990689321046399E-2</v>
-      </c>
-      <c r="K4">
-        <v>9.3210838220907893E-2</v>
-      </c>
-      <c r="L4">
-        <v>9.3180722531506499E-2</v>
-      </c>
-      <c r="M4">
-        <v>9.3103132825472806E-2</v>
-      </c>
-      <c r="N4">
-        <v>9.3548459214839397E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.72274678111587898</v>
-      </c>
-      <c r="C5">
-        <v>0.19734375000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.31003375268487199</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>9.3936181357729617E-2</v>
-      </c>
-      <c r="F5">
-        <v>9.9652326720929205E-2</v>
-      </c>
-      <c r="G5">
-        <v>9.3346360799976394E-2</v>
-      </c>
-      <c r="H5">
-        <v>9.3194263436681704E-2</v>
-      </c>
-      <c r="I5">
-        <v>9.29781802027521E-2</v>
-      </c>
-      <c r="J5">
-        <v>9.2995581861985699E-2</v>
-      </c>
-      <c r="K5">
-        <v>9.32175377395114E-2</v>
-      </c>
-      <c r="L5">
-        <v>9.3012887109375206E-2</v>
-      </c>
-      <c r="M5">
-        <v>9.3092312990625301E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.65741811175337095</v>
-      </c>
-      <c r="C6">
-        <v>0.15615560640732201</v>
-      </c>
-      <c r="D6">
-        <v>0.25236686390532498</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>9.8822056335532732E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.10650115171631799</v>
-      </c>
-      <c r="G6">
-        <v>0.104618129771266</v>
-      </c>
-      <c r="H6">
-        <v>9.94237491802486E-2</v>
-      </c>
-      <c r="I6">
-        <v>9.3525611530648797E-2</v>
-      </c>
-      <c r="J6">
-        <v>9.4214342036515797E-2</v>
-      </c>
-      <c r="K6">
-        <v>9.8040451006270596E-2</v>
-      </c>
-      <c r="L6">
-        <v>9.5430959107461202E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.59705742762221103</v>
-      </c>
-      <c r="C7">
-        <v>0.12811895305020801</v>
-      </c>
-      <c r="D7">
-        <v>0.21096763374140501</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.11160980620257799</v>
-      </c>
-      <c r="F7">
-        <v>0.111335086392743</v>
-      </c>
-      <c r="G7">
-        <v>0.109083654438242</v>
-      </c>
-      <c r="H7">
-        <v>0.111674389155868</v>
-      </c>
-      <c r="I7">
-        <v>0.11335189617746699</v>
-      </c>
-      <c r="J7">
-        <v>0.11200984659411101</v>
-      </c>
-      <c r="K7">
-        <v>0.11220396445703699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.59764826175869101</v>
-      </c>
-      <c r="C8">
-        <v>0.133173843700159</v>
-      </c>
-      <c r="D8">
-        <v>0.217812558226197</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.10792334569144839</v>
-      </c>
-      <c r="F8">
-        <v>0.112938545248063</v>
-      </c>
-      <c r="G8">
-        <v>0.11003132075628801</v>
-      </c>
-      <c r="H8">
-        <v>0.10567755080388</v>
-      </c>
-      <c r="I8">
-        <v>0.105340247456501</v>
-      </c>
-      <c r="J8">
-        <v>0.10562906419251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.58759333716255002</v>
-      </c>
-      <c r="C9">
-        <v>0.127397260273972</v>
-      </c>
-      <c r="D9">
-        <v>0.20939514891003899</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.11229493872842525</v>
-      </c>
-      <c r="F9">
-        <v>0.115484978605963</v>
-      </c>
-      <c r="G9">
-        <v>0.11417723285473499</v>
-      </c>
-      <c r="H9">
-        <v>0.111523757564325</v>
-      </c>
-      <c r="I9">
-        <v>0.107993785888678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.56094364351244996</v>
-      </c>
-      <c r="C10">
-        <v>0.114255205552589</v>
-      </c>
-      <c r="D10">
-        <v>0.18984253714792601</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.115804798210492</v>
-      </c>
-      <c r="F10">
-        <v>0.11667664076895801</v>
-      </c>
-      <c r="G10">
-        <v>0.116109964778102</v>
-      </c>
-      <c r="H10">
-        <v>0.114627789084416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.56750572082379802</v>
-      </c>
-      <c r="C11">
-        <v>0.118039029033793</v>
-      </c>
-      <c r="D11">
-        <v>0.19542947202521599</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.118160745171146</v>
-      </c>
-      <c r="F11">
-        <v>0.11858626114677701</v>
-      </c>
-      <c r="G11">
-        <v>0.117735229195515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.52898550724637605</v>
-      </c>
-      <c r="C12">
-        <v>0.108415841584158</v>
-      </c>
-      <c r="D12">
-        <v>0.179950698438783</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.12006979678433601</v>
-      </c>
-      <c r="F12">
-        <v>0.12006979678433601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.64554039185540302</v>
-      </c>
-      <c r="C13">
-        <v>0.165151672703654</v>
-      </c>
-      <c r="D13">
-        <v>0.26134441008215697</v>
-      </c>
-      <c r="F13">
-        <v>0.10754454696846499</v>
-      </c>
-      <c r="G13">
-        <v>0.104294650332467</v>
-      </c>
-      <c r="H13">
-        <v>0.10245618041778901</v>
-      </c>
-      <c r="I13">
-        <v>0.100759461507333</v>
-      </c>
-      <c r="J13">
-        <v>9.9391964509608299E-2</v>
-      </c>
-      <c r="K13">
-        <v>9.8409349654677805E-2</v>
-      </c>
-      <c r="L13">
-        <v>9.5248557974842801E-2</v>
-      </c>
-      <c r="M13">
-        <v>9.3929990848476197E-2</v>
-      </c>
-      <c r="N13">
-        <v>9.7527642148931601E-2</v>
-      </c>
-      <c r="O13">
-        <v>9.2606913674246796E-2</v>
-      </c>
-      <c r="P13">
-        <v>9.9918010000920404E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0.77285921625544196</v>
-      </c>
-      <c r="C14">
-        <v>0.26338568072214602</v>
-      </c>
-      <c r="D14">
-        <v>0.39288019920686101</v>
-      </c>
-      <c r="E14">
-        <f>AVERAGE(F14:P14)</f>
-        <v>0.10727249941531701</v>
-      </c>
-      <c r="F14">
-        <v>0.12006979678433601</v>
-      </c>
-      <c r="G14">
-        <v>0.117735229195515</v>
-      </c>
-      <c r="H14">
-        <v>0.114627789084416</v>
-      </c>
-      <c r="I14">
-        <v>0.11335189617746699</v>
-      </c>
-      <c r="J14">
-        <v>0.11200984659411101</v>
-      </c>
-      <c r="K14">
-        <v>0.11220396445703699</v>
-      </c>
-      <c r="L14">
-        <v>9.9148281204660002E-2</v>
-      </c>
-      <c r="M14">
-        <v>9.6982216935648305E-2</v>
-      </c>
-      <c r="N14">
-        <v>9.9565107625825405E-2</v>
-      </c>
-      <c r="O14">
-        <v>9.4385355508550997E-2</v>
-      </c>
-      <c r="P14">
-        <v>9.9918010000920404E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>-2.6304927009922902E-2</v>
-      </c>
-      <c r="C15">
-        <v>-1.6322361626637499E-2</v>
-      </c>
-      <c r="D15">
-        <v>-2.2620818024004001E-2</v>
-      </c>
-      <c r="F15">
-        <v>3.09373740767521E-3</v>
-      </c>
-      <c r="G15">
-        <v>3.3438990172863598E-3</v>
-      </c>
-      <c r="H15">
-        <v>2.6442165134958799E-3</v>
-      </c>
-      <c r="I15">
-        <v>1.7418320192887399E-3</v>
-      </c>
-      <c r="J15">
-        <v>1.62512913572292E-3</v>
-      </c>
-      <c r="K15">
-        <v>2.1277107095845301E-3</v>
-      </c>
-      <c r="L15">
-        <v>-9.8916970062338291E-4</v>
-      </c>
-      <c r="M15">
-        <v>-1.1108879651754199E-3</v>
-      </c>
-      <c r="N15">
-        <v>-3.00832420549299E-3</v>
-      </c>
-      <c r="O15">
-        <v>-3.5568836686085199E-3</v>
-      </c>
-      <c r="P15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16">
-        <v>21005</v>
-      </c>
-      <c r="G16">
-        <v>12951</v>
-      </c>
-      <c r="H16">
-        <v>6588</v>
-      </c>
-      <c r="I16">
-        <v>2664</v>
-      </c>
-      <c r="J16">
-        <v>4105</v>
-      </c>
-      <c r="K16">
-        <v>6071</v>
-      </c>
-      <c r="L16">
-        <v>5036</v>
-      </c>
-      <c r="M16">
-        <v>8378</v>
-      </c>
-      <c r="N16">
-        <v>2959</v>
-      </c>
-      <c r="O16">
-        <v>11802</v>
-      </c>
-      <c r="P16">
-        <v>3119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17">
-        <v>4078</v>
-      </c>
-      <c r="G17">
-        <v>2246</v>
-      </c>
-      <c r="H17">
-        <v>1180</v>
-      </c>
-      <c r="I17">
-        <v>462</v>
-      </c>
-      <c r="J17">
-        <v>674</v>
-      </c>
-      <c r="K17">
-        <v>1029</v>
-      </c>
-      <c r="L17">
-        <v>880</v>
-      </c>
-      <c r="M17">
-        <v>1440</v>
-      </c>
-      <c r="N17">
-        <v>498</v>
-      </c>
-      <c r="O17">
-        <v>1443</v>
-      </c>
-      <c r="P17">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F18">
-        <v>5.1508092202059803</v>
-      </c>
-      <c r="G18">
-        <v>5.7662511130899299</v>
-      </c>
-      <c r="H18">
-        <v>5.5830508474576197</v>
-      </c>
-      <c r="I18">
-        <v>5.7662337662337597</v>
-      </c>
-      <c r="J18">
-        <v>6.0905044510385702</v>
-      </c>
-      <c r="K18">
-        <v>5.8999028182701601</v>
-      </c>
-      <c r="L18">
-        <v>5.72272727272727</v>
-      </c>
-      <c r="M18">
-        <v>5.8180555555555502</v>
-      </c>
-      <c r="N18">
-        <v>5.9417670682730899</v>
-      </c>
-      <c r="O18">
-        <v>8.1787941787941794</v>
-      </c>
-      <c r="P18">
-        <v>6.6361702127659496</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.76777836597847104</v>
-      </c>
-      <c r="C2">
-        <v>0.26901199455916902</v>
-      </c>
-      <c r="D2">
-        <v>0.39842498054118303</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(F2:P2)</f>
-        <v>9.5170131903440897E-2</v>
-      </c>
-      <c r="F2">
-        <v>9.0231291619794193E-2</v>
-      </c>
-      <c r="G2">
-        <v>9.1039025952783001E-2</v>
-      </c>
-      <c r="H2">
-        <v>9.6533495479166107E-2</v>
-      </c>
-      <c r="I2">
-        <v>9.7245359779878596E-2</v>
-      </c>
-      <c r="J2">
-        <v>9.8241360939711295E-2</v>
-      </c>
-      <c r="K2">
-        <v>9.69209084982664E-2</v>
-      </c>
-      <c r="L2">
-        <v>9.6518480312968197E-2</v>
-      </c>
-      <c r="M2">
-        <v>9.4172817124651698E-2</v>
-      </c>
-      <c r="N2">
-        <v>9.6934701713612403E-2</v>
-      </c>
-      <c r="O2">
-        <v>9.1741480644945902E-2</v>
-      </c>
-      <c r="P2">
-        <v>9.7292528872072001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.76674025018395797</v>
-      </c>
-      <c r="C3">
-        <v>0.26721374535196801</v>
-      </c>
-      <c r="D3">
-        <v>0.39631073500047498</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">AVERAGE(F3:P3)</f>
-        <v>9.1897133337793924E-2</v>
-      </c>
-      <c r="F3">
-        <v>8.92863216661198E-2</v>
-      </c>
-      <c r="G3">
-        <v>8.8320692965736997E-2</v>
-      </c>
-      <c r="H3">
-        <v>9.0857351443158096E-2</v>
-      </c>
-      <c r="I3">
-        <v>9.7096432836690796E-2</v>
-      </c>
-      <c r="J3">
-        <v>9.4372562910324004E-2</v>
-      </c>
-      <c r="K3">
-        <v>9.1348050808086806E-2</v>
-      </c>
-      <c r="L3">
-        <v>9.2662347893523803E-2</v>
-      </c>
-      <c r="M3">
-        <v>8.9960989842343103E-2</v>
-      </c>
-      <c r="N3">
-        <v>9.6830683337749607E-2</v>
-      </c>
-      <c r="O3">
-        <v>8.8235899674206197E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.72958669354838701</v>
-      </c>
-      <c r="C4">
-        <v>0.21519363710696399</v>
-      </c>
-      <c r="D4">
-        <v>0.33235749956948502</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>9.1479141595190425E-2</v>
-      </c>
-      <c r="F4">
-        <v>9.47955855888543E-2</v>
-      </c>
-      <c r="G4">
-        <v>9.0939773650384206E-2</v>
-      </c>
-      <c r="H4">
-        <v>9.0863762687789396E-2</v>
-      </c>
-      <c r="I4">
-        <v>9.1244051153767006E-2</v>
-      </c>
-      <c r="J4">
-        <v>9.0812774353523307E-2</v>
-      </c>
-      <c r="K4">
-        <v>9.10692205959103E-2</v>
-      </c>
-      <c r="L4">
-        <v>9.1210690471269396E-2</v>
-      </c>
-      <c r="M4">
-        <v>9.0888419121650202E-2</v>
-      </c>
-      <c r="N4">
-        <v>9.1487996733565696E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.71608659906823702</v>
-      </c>
-      <c r="C5">
-        <v>0.20414062499999999</v>
-      </c>
-      <c r="D5">
-        <v>0.31770928323910202</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>9.1677970058139782E-2</v>
-      </c>
-      <c r="F5">
-        <v>9.7127010108958703E-2</v>
-      </c>
-      <c r="G5">
-        <v>9.1047410193600797E-2</v>
-      </c>
-      <c r="H5">
-        <v>9.0982471065059495E-2</v>
-      </c>
-      <c r="I5">
-        <v>9.0957214246171994E-2</v>
-      </c>
-      <c r="J5">
-        <v>9.0702202040572E-2</v>
-      </c>
-      <c r="K5">
-        <v>9.0971616115624293E-2</v>
-      </c>
-      <c r="L5">
-        <v>9.06980431773418E-2</v>
-      </c>
-      <c r="M5">
-        <v>9.0937793517789203E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.65236363636363603</v>
-      </c>
-      <c r="C6">
-        <v>0.164210526315789</v>
-      </c>
-      <c r="D6">
-        <v>0.26237659963436899</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>9.6338570914554139E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.103884286700289</v>
-      </c>
-      <c r="G6">
-        <v>0.101915652035818</v>
-      </c>
-      <c r="H6">
-        <v>9.6878214171605706E-2</v>
-      </c>
-      <c r="I6">
-        <v>9.1194366279794201E-2</v>
-      </c>
-      <c r="J6">
-        <v>9.1834964983423098E-2</v>
-      </c>
-      <c r="K6">
-        <v>9.5546937813712304E-2</v>
-      </c>
-      <c r="L6">
-        <v>9.3115574417236696E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.595754091110128</v>
-      </c>
-      <c r="C7">
-        <v>0.13718301252673301</v>
-      </c>
-      <c r="D7">
-        <v>0.22301324503311201</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.10863592793645367</v>
-      </c>
-      <c r="F7">
-        <v>0.10902689669318</v>
-      </c>
-      <c r="G7">
-        <v>0.10632979626436501</v>
-      </c>
-      <c r="H7">
-        <v>0.108506118662792</v>
-      </c>
-      <c r="I7">
-        <v>0.110241136328896</v>
-      </c>
-      <c r="J7">
-        <v>0.10882143153554701</v>
-      </c>
-      <c r="K7">
-        <v>0.108890188133942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.59761336515513097</v>
-      </c>
-      <c r="C8">
-        <v>0.14262930052403699</v>
-      </c>
-      <c r="D8">
-        <v>0.23029522670836</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.10593988749074419</v>
-      </c>
-      <c r="F8">
-        <v>0.11121731254502799</v>
-      </c>
-      <c r="G8">
-        <v>0.10799125969095499</v>
-      </c>
-      <c r="H8">
-        <v>0.10340583339352701</v>
-      </c>
-      <c r="I8">
-        <v>0.103597332915062</v>
-      </c>
-      <c r="J8">
-        <v>0.103487698909149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.59176029962546794</v>
-      </c>
-      <c r="C9">
-        <v>0.13773349937733501</v>
-      </c>
-      <c r="D9">
-        <v>0.223456914839882</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.11036361824399325</v>
-      </c>
-      <c r="F9">
-        <v>0.113799053157603</v>
-      </c>
-      <c r="G9">
-        <v>0.112605146743975</v>
-      </c>
-      <c r="H9">
-        <v>0.109312497122335</v>
-      </c>
-      <c r="I9">
-        <v>0.10573777595206001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.56838905775075899</v>
-      </c>
-      <c r="C10">
-        <v>0.12479978643886799</v>
-      </c>
-      <c r="D10">
-        <v>0.20466236182554401</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.11430585594409133</v>
-      </c>
-      <c r="F10">
-        <v>0.11505072082069299</v>
-      </c>
-      <c r="G10">
-        <v>0.114816162208244</v>
-      </c>
-      <c r="H10">
-        <v>0.11305068480333701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.56891701828410601</v>
-      </c>
-      <c r="C11">
-        <v>0.128351578613358</v>
-      </c>
-      <c r="D11">
-        <v>0.20944983818770199</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.11654029312516151</v>
-      </c>
-      <c r="F11">
-        <v>0.11695208423413</v>
-      </c>
-      <c r="G11">
-        <v>0.116128502016193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.53975363941769305</v>
-      </c>
-      <c r="C12">
-        <v>0.119306930693069</v>
-      </c>
-      <c r="D12">
-        <v>0.19541860936549699</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.117809251985489</v>
-      </c>
-      <c r="F12">
-        <v>0.117809251985489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.64497663786236104</v>
-      </c>
-      <c r="C13">
-        <v>0.173615876046117</v>
-      </c>
-      <c r="D13">
-        <v>0.27213411763133699</v>
-      </c>
-      <c r="F13">
-        <v>0.10537998319274</v>
-      </c>
-      <c r="G13">
-        <v>0.102113342172205</v>
-      </c>
-      <c r="H13">
-        <v>0.100043380980974</v>
-      </c>
-      <c r="I13">
-        <v>9.84142086865403E-2</v>
-      </c>
-      <c r="J13">
-        <v>9.6896142238892896E-2</v>
-      </c>
-      <c r="K13">
-        <v>9.5791153660923695E-2</v>
-      </c>
-      <c r="L13">
-        <v>9.2841027254467995E-2</v>
-      </c>
-      <c r="M13">
-        <v>9.1490004901608496E-2</v>
-      </c>
-      <c r="N13">
-        <v>9.5084460594975898E-2</v>
-      </c>
-      <c r="O13">
-        <v>8.9988690159576099E-2</v>
-      </c>
-      <c r="P13">
-        <v>9.7292528872072001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0.76777836597847104</v>
-      </c>
-      <c r="C14">
-        <v>0.26901199455916902</v>
-      </c>
-      <c r="D14">
-        <v>0.39842498054118303</v>
-      </c>
-      <c r="E14">
-        <f>AVERAGE(F14:P14)</f>
-        <v>0.10469101849742311</v>
-      </c>
-      <c r="F14">
-        <v>0.117809251985489</v>
-      </c>
-      <c r="G14">
-        <v>0.116128502016193</v>
-      </c>
-      <c r="H14">
-        <v>0.11305068480333701</v>
-      </c>
-      <c r="I14">
-        <v>0.110241136328896</v>
-      </c>
-      <c r="J14">
-        <v>0.10882143153554701</v>
-      </c>
-      <c r="K14">
-        <v>0.108890188133942</v>
-      </c>
-      <c r="L14">
-        <v>9.6518480312968197E-2</v>
-      </c>
-      <c r="M14">
-        <v>9.4172817124651698E-2</v>
-      </c>
-      <c r="N14">
-        <v>9.6934701713612403E-2</v>
-      </c>
-      <c r="O14">
-        <v>9.1741480644945902E-2</v>
-      </c>
-      <c r="P14">
-        <v>9.7292528872072001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>-2.4712839435365699E-2</v>
-      </c>
-      <c r="C15">
-        <v>-1.57231910484209E-2</v>
-      </c>
-      <c r="D15">
-        <v>-2.1510426964416299E-2</v>
-      </c>
-      <c r="F15">
-        <v>3.1817760885278299E-3</v>
-      </c>
-      <c r="G15">
-        <v>3.4839159239807098E-3</v>
-      </c>
-      <c r="H15">
-        <v>2.7340330557237701E-3</v>
-      </c>
-      <c r="I15">
-        <v>1.7759502518588501E-3</v>
-      </c>
-      <c r="J15">
-        <v>1.6306764924521799E-3</v>
-      </c>
-      <c r="K15">
-        <v>2.0670129918563202E-3</v>
-      </c>
-      <c r="L15">
-        <v>-8.7701165076449201E-4</v>
-      </c>
-      <c r="M15">
-        <v>-8.7776415412805597E-4</v>
-      </c>
-      <c r="N15">
-        <v>-2.7233524900233301E-3</v>
-      </c>
-      <c r="O15">
-        <v>-3.5055809707397099E-3</v>
-      </c>
-      <c r="P15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16">
-        <v>21005</v>
-      </c>
-      <c r="G16">
-        <v>12951</v>
-      </c>
-      <c r="H16">
-        <v>6588</v>
-      </c>
-      <c r="I16">
-        <v>2664</v>
-      </c>
-      <c r="J16">
-        <v>4105</v>
-      </c>
-      <c r="K16">
-        <v>6071</v>
-      </c>
-      <c r="L16">
-        <v>5036</v>
-      </c>
-      <c r="M16">
-        <v>8378</v>
-      </c>
-      <c r="N16">
-        <v>2959</v>
-      </c>
-      <c r="O16">
-        <v>11802</v>
-      </c>
-      <c r="P16">
-        <v>3119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17">
-        <v>4078</v>
-      </c>
-      <c r="G17">
-        <v>2246</v>
-      </c>
-      <c r="H17">
-        <v>1180</v>
-      </c>
-      <c r="I17">
-        <v>462</v>
-      </c>
-      <c r="J17">
-        <v>674</v>
-      </c>
-      <c r="K17">
-        <v>1029</v>
-      </c>
-      <c r="L17">
-        <v>880</v>
-      </c>
-      <c r="M17">
-        <v>1440</v>
-      </c>
-      <c r="N17">
-        <v>498</v>
-      </c>
-      <c r="O17">
-        <v>1443</v>
-      </c>
-      <c r="P17">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F18">
-        <v>5.1508092202059803</v>
-      </c>
-      <c r="G18">
-        <v>5.7662511130899299</v>
-      </c>
-      <c r="H18">
-        <v>5.5830508474576197</v>
-      </c>
-      <c r="I18">
-        <v>5.7662337662337597</v>
-      </c>
-      <c r="J18">
-        <v>6.0905044510385702</v>
-      </c>
-      <c r="K18">
-        <v>5.8999028182701601</v>
-      </c>
-      <c r="L18">
-        <v>5.72272727272727</v>
-      </c>
-      <c r="M18">
-        <v>5.8180555555555502</v>
-      </c>
-      <c r="N18">
-        <v>5.9417670682730899</v>
-      </c>
-      <c r="O18">
-        <v>8.1787941787941794</v>
-      </c>
-      <c r="P18">
-        <v>6.6361702127659496</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.70692368214004697</v>
-      </c>
-      <c r="C2">
-        <v>0.44480198019801898</v>
-      </c>
-      <c r="D2">
-        <v>0.54603463992707302</v>
-      </c>
-      <c r="F2">
-        <v>8.6827350423136301E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.74422187981510002</v>
-      </c>
-      <c r="C3">
-        <v>0.426866990720282</v>
-      </c>
-      <c r="D3">
-        <v>0.54254422914911504</v>
-      </c>
-      <c r="G3">
-        <v>0.103409949675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.64832214765100604</v>
-      </c>
-      <c r="C4">
-        <v>0.40622371740958702</v>
-      </c>
-      <c r="D4">
-        <v>0.49948293691830398</v>
-      </c>
-      <c r="H4">
-        <v>0.12030381900827899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.78205128205128205</v>
-      </c>
-      <c r="C5">
-        <v>0.56691449814126305</v>
-      </c>
-      <c r="D5">
-        <v>0.65732758620689602</v>
-      </c>
-      <c r="I5">
-        <v>0.10246059894871801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.55773955773955697</v>
-      </c>
-      <c r="C6">
-        <v>0.303475935828877</v>
-      </c>
-      <c r="D6">
-        <v>0.39307359307359302</v>
-      </c>
-      <c r="J6">
-        <v>0.12408598568439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.623417721518987</v>
-      </c>
-      <c r="C7">
-        <v>0.37848222862632003</v>
-      </c>
-      <c r="D7">
-        <v>0.47101016138673002</v>
-      </c>
-      <c r="K7">
-        <v>0.12879793689593999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.75104895104895097</v>
-      </c>
-      <c r="C8">
-        <v>0.48553345388788399</v>
-      </c>
-      <c r="D8">
-        <v>0.58978583196046097</v>
-      </c>
-      <c r="L8">
-        <v>0.11640243778675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.78376068376068297</v>
-      </c>
-      <c r="C9">
-        <v>0.48906666666666598</v>
-      </c>
-      <c r="D9">
-        <v>0.602298850574712</v>
-      </c>
-      <c r="M9">
-        <v>0.125164672720223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.76381909547738602</v>
-      </c>
-      <c r="C10">
-        <v>0.46554364471669202</v>
-      </c>
-      <c r="D10">
-        <v>0.57849666983824899</v>
-      </c>
-      <c r="N10">
-        <v>0.12756990747393299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.72660098522167405</v>
-      </c>
-      <c r="C11">
-        <v>0.68764568764568701</v>
-      </c>
-      <c r="D11">
-        <v>0.70658682634730496</v>
-      </c>
-      <c r="O11">
-        <v>0.122890986716079</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.76470588235294101</v>
-      </c>
-      <c r="C12">
-        <v>0.51909722222222199</v>
-      </c>
-      <c r="D12">
-        <v>0.61840744570837602</v>
-      </c>
-      <c r="P12">
-        <v>0.13327125478621801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.71387380625250996</v>
-      </c>
-      <c r="C13">
-        <v>0.47033200236940897</v>
-      </c>
-      <c r="D13">
-        <v>0.56409534282643703</v>
-      </c>
-      <c r="F13">
-        <v>8.6827350423136301E-2</v>
-      </c>
-      <c r="G13">
-        <v>0.103409949675</v>
-      </c>
-      <c r="H13">
-        <v>0.12030381900827899</v>
-      </c>
-      <c r="I13">
-        <v>0.10246059894871801</v>
-      </c>
-      <c r="J13">
-        <v>0.12408598568439</v>
-      </c>
-      <c r="K13">
-        <v>0.12879793689593999</v>
-      </c>
-      <c r="L13">
-        <v>0.11640243778675</v>
-      </c>
-      <c r="M13">
-        <v>0.125164672720223</v>
-      </c>
-      <c r="N13">
-        <v>0.12756990747393299</v>
-      </c>
-      <c r="O13">
-        <v>0.122890986716079</v>
-      </c>
-      <c r="P13">
-        <v>0.13327125478621801</v>
-      </c>
-      <c r="Q13">
-        <f>AVERAGE(F13:P13)</f>
-        <v>0.11738044546533331</v>
-      </c>
-      <c r="R13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0.78376068376068297</v>
-      </c>
-      <c r="C14">
-        <v>0.68764568764568701</v>
-      </c>
-      <c r="D14">
-        <v>0.70658682634730496</v>
-      </c>
-      <c r="F14">
-        <v>8.6827350423136301E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.103409949675</v>
-      </c>
-      <c r="H14">
-        <v>0.12030381900827899</v>
-      </c>
-      <c r="I14">
-        <v>0.10246059894871801</v>
-      </c>
-      <c r="J14">
-        <v>0.12408598568439</v>
-      </c>
-      <c r="K14">
-        <v>0.12879793689593999</v>
-      </c>
-      <c r="L14">
-        <v>0.11640243778675</v>
-      </c>
-      <c r="M14">
-        <v>0.125164672720223</v>
-      </c>
-      <c r="N14">
-        <v>0.12756990747393299</v>
-      </c>
-      <c r="O14">
-        <v>0.122890986716079</v>
-      </c>
-      <c r="P14">
-        <v>0.13327125478621801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>6.9240587536191396E-3</v>
-      </c>
-      <c r="C15">
-        <v>1.4717387589579601E-2</v>
-      </c>
-      <c r="D15">
-        <v>1.21975489461964E-2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16">
-        <v>21005</v>
-      </c>
-      <c r="G16">
-        <v>12951</v>
-      </c>
-      <c r="H16">
-        <v>6588</v>
-      </c>
-      <c r="I16">
-        <v>2664</v>
-      </c>
-      <c r="J16">
-        <v>4105</v>
-      </c>
-      <c r="K16">
-        <v>6071</v>
-      </c>
-      <c r="L16">
-        <v>5036</v>
-      </c>
-      <c r="M16">
-        <v>8378</v>
-      </c>
-      <c r="N16">
-        <v>2959</v>
-      </c>
-      <c r="O16">
-        <v>11802</v>
-      </c>
-      <c r="P16">
-        <v>3119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17">
-        <v>4078</v>
-      </c>
-      <c r="G17">
-        <v>2246</v>
-      </c>
-      <c r="H17">
-        <v>1180</v>
-      </c>
-      <c r="I17">
-        <v>462</v>
-      </c>
-      <c r="J17">
-        <v>674</v>
-      </c>
-      <c r="K17">
-        <v>1029</v>
-      </c>
-      <c r="L17">
-        <v>880</v>
-      </c>
-      <c r="M17">
-        <v>1440</v>
-      </c>
-      <c r="N17">
-        <v>498</v>
-      </c>
-      <c r="O17">
-        <v>1443</v>
-      </c>
-      <c r="P17">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F18">
-        <v>5.1508092202059803</v>
-      </c>
-      <c r="G18">
-        <v>5.7662511130899299</v>
-      </c>
-      <c r="H18">
-        <v>5.5830508474576197</v>
-      </c>
-      <c r="I18">
-        <v>5.7662337662337597</v>
-      </c>
-      <c r="J18">
-        <v>6.0905044510385702</v>
-      </c>
-      <c r="K18">
-        <v>5.8999028182701601</v>
-      </c>
-      <c r="L18">
-        <v>5.72272727272727</v>
-      </c>
-      <c r="M18">
-        <v>5.8180555555555502</v>
-      </c>
-      <c r="N18">
-        <v>5.9417670682730899</v>
-      </c>
-      <c r="O18">
-        <v>8.1787941787941794</v>
-      </c>
-      <c r="P18">
-        <v>6.6361702127659496</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.68139773895169498</v>
-      </c>
-      <c r="C2">
-        <v>0.49232673267326699</v>
-      </c>
-      <c r="D2">
-        <v>0.57163385543899903</v>
-      </c>
-      <c r="E2">
-        <v>8.7174371148185298E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.67486502699460105</v>
-      </c>
-      <c r="C3">
-        <v>0.49712770658417998</v>
-      </c>
-      <c r="D3">
-        <v>0.57251908396946505</v>
-      </c>
-      <c r="F3">
-        <v>0.10927160456053001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.629124004550625</v>
-      </c>
-      <c r="C4">
-        <v>0.46509671993271601</v>
-      </c>
-      <c r="D4">
-        <v>0.53481624758220503</v>
-      </c>
-      <c r="G4">
-        <v>0.102498817542976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.81971830985915495</v>
-      </c>
-      <c r="C5">
-        <v>0.54089219330854998</v>
-      </c>
-      <c r="D5">
-        <v>0.65173572228443399</v>
-      </c>
-      <c r="H5">
-        <v>9.5416122615800195E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.54913294797687795</v>
-      </c>
-      <c r="C6">
-        <v>0.38101604278074802</v>
-      </c>
-      <c r="D6">
-        <v>0.44988161010260402</v>
-      </c>
-      <c r="I6">
-        <v>0.11894922743830399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.55337423312883405</v>
-      </c>
-      <c r="C7">
-        <v>0.43323727185398597</v>
-      </c>
-      <c r="D7">
-        <v>0.48599137931034397</v>
-      </c>
-      <c r="J7">
-        <v>0.121281527429003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.76102941176470495</v>
-      </c>
-      <c r="C8">
-        <v>0.56148282097649105</v>
-      </c>
-      <c r="D8">
-        <v>0.64620187304890697</v>
-      </c>
-      <c r="K8">
-        <v>0.113372257118486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.80443388756927903</v>
-      </c>
-      <c r="C9">
-        <v>0.54186666666666605</v>
-      </c>
-      <c r="D9">
-        <v>0.64754620777565297</v>
-      </c>
-      <c r="L9">
-        <v>0.101889939168413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.75053763440860199</v>
-      </c>
-      <c r="C10">
-        <v>0.53445635528330704</v>
-      </c>
-      <c r="D10">
-        <v>0.62432915921288001</v>
-      </c>
-      <c r="M10">
-        <v>9.1012788827202706E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.81010794896957805</v>
-      </c>
-      <c r="C11">
-        <v>0.76969696969696899</v>
-      </c>
-      <c r="D11">
-        <v>0.78938560841501304</v>
-      </c>
-      <c r="N11">
-        <v>9.4243236669461605E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.95010395010394999</v>
-      </c>
-      <c r="C12">
-        <v>0.79340277777777701</v>
-      </c>
-      <c r="D12">
-        <v>0.86471144749290396</v>
-      </c>
-      <c r="O12">
-        <v>9.6836940074566905E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.72580228129799096</v>
-      </c>
-      <c r="C13">
-        <v>0.54641838704860501</v>
-      </c>
-      <c r="D13">
-        <v>0.62170474496667305</v>
-      </c>
-      <c r="E13">
-        <v>8.7174371148185298E-2</v>
-      </c>
-      <c r="F13">
-        <v>0.10927160456053001</v>
-      </c>
-      <c r="G13">
-        <v>0.102498817542976</v>
-      </c>
-      <c r="H13">
-        <v>9.5416122615800195E-2</v>
-      </c>
-      <c r="I13">
-        <v>0.11894922743830399</v>
-      </c>
-      <c r="J13">
-        <v>0.121281527429003</v>
-      </c>
-      <c r="K13">
-        <v>0.113372257118486</v>
-      </c>
-      <c r="L13">
-        <v>0.101889939168413</v>
-      </c>
-      <c r="M13">
-        <v>9.1012788827202706E-2</v>
-      </c>
-      <c r="N13">
-        <v>9.4243236669461605E-2</v>
-      </c>
-      <c r="O13">
-        <v>9.6836940074566905E-2</v>
-      </c>
-      <c r="P13">
-        <f>AVERAGE(E13:O13)</f>
-        <v>0.10290425750844809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0.95010395010394999</v>
-      </c>
-      <c r="C14">
-        <v>0.79340277777777701</v>
-      </c>
-      <c r="D14">
-        <v>0.86471144749290396</v>
-      </c>
-      <c r="E14">
-        <v>8.7174371148185298E-2</v>
-      </c>
-      <c r="F14">
-        <v>0.10927160456053001</v>
-      </c>
-      <c r="G14">
-        <v>0.102498817542976</v>
-      </c>
-      <c r="H14">
-        <v>9.5416122615800195E-2</v>
-      </c>
-      <c r="I14">
-        <v>0.11894922743830399</v>
-      </c>
-      <c r="J14">
-        <v>0.121281527429003</v>
-      </c>
-      <c r="K14">
-        <v>0.113372257118486</v>
-      </c>
-      <c r="L14">
-        <v>0.101889939168413</v>
-      </c>
-      <c r="M14">
-        <v>9.1012788827202706E-2</v>
-      </c>
-      <c r="N14">
-        <v>9.4243236669461605E-2</v>
-      </c>
-      <c r="O14">
-        <v>9.6836940074566905E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>2.20915568403925E-2</v>
-      </c>
-      <c r="C15">
-        <v>2.7146835535795E-2</v>
-      </c>
-      <c r="D15">
-        <v>2.5357582062476999E-2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>21005</v>
-      </c>
-      <c r="F16">
-        <v>12951</v>
-      </c>
-      <c r="G16">
-        <v>6588</v>
-      </c>
-      <c r="H16">
-        <v>2664</v>
-      </c>
-      <c r="I16">
-        <v>4105</v>
-      </c>
-      <c r="J16">
-        <v>6071</v>
-      </c>
-      <c r="K16">
-        <v>5036</v>
-      </c>
-      <c r="L16">
-        <v>8378</v>
-      </c>
-      <c r="M16">
-        <v>2959</v>
-      </c>
-      <c r="N16">
-        <v>11802</v>
-      </c>
-      <c r="O16">
-        <v>3119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>4078</v>
-      </c>
-      <c r="F17">
-        <v>2246</v>
-      </c>
-      <c r="G17">
-        <v>1180</v>
-      </c>
-      <c r="H17">
-        <v>462</v>
-      </c>
-      <c r="I17">
-        <v>674</v>
-      </c>
-      <c r="J17">
-        <v>1029</v>
-      </c>
-      <c r="K17">
-        <v>880</v>
-      </c>
-      <c r="L17">
-        <v>1440</v>
-      </c>
-      <c r="M17">
-        <v>498</v>
-      </c>
-      <c r="N17">
-        <v>1443</v>
-      </c>
-      <c r="O17">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="E18">
-        <v>5.1508092202059803</v>
-      </c>
-      <c r="F18">
-        <v>5.7662511130899299</v>
-      </c>
-      <c r="G18">
-        <v>5.5830508474576197</v>
-      </c>
-      <c r="H18">
-        <v>5.7662337662337597</v>
-      </c>
-      <c r="I18">
-        <v>6.0905044510385702</v>
-      </c>
-      <c r="J18">
-        <v>5.8999028182701601</v>
-      </c>
-      <c r="K18">
-        <v>5.72272727272727</v>
-      </c>
-      <c r="L18">
-        <v>5.8180555555555502</v>
-      </c>
-      <c r="M18">
-        <v>5.9417670682730899</v>
-      </c>
-      <c r="N18">
-        <v>8.1787941787941794</v>
-      </c>
-      <c r="O18">
-        <v>6.6361702127659496</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
@@ -6667,7 +4201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -8510,21 +6044,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8535,691 +6069,482 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.66732796032237995</v>
+        <v>0.75882090218847698</v>
       </c>
       <c r="C2">
-        <v>0.33275627550389503</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.44407772597879402</v>
+        <v>0.42054455445544497</v>
+      </c>
+      <c r="D2">
+        <v>0.54116897595158397</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(F2:P2)</f>
-        <v>0.11127046895014391</v>
-      </c>
-      <c r="F2">
-        <v>0.105470809114198</v>
-      </c>
-      <c r="G2">
-        <v>0.106267769197781</v>
-      </c>
-      <c r="H2">
-        <v>0.112996063956289</v>
-      </c>
-      <c r="I2">
-        <v>0.113515735894904</v>
-      </c>
-      <c r="J2">
-        <v>0.114919135944579</v>
-      </c>
-      <c r="K2">
-        <v>0.113480460588142</v>
-      </c>
-      <c r="L2">
-        <v>0.11295232947577601</v>
-      </c>
-      <c r="M2">
-        <v>0.109955167864476</v>
-      </c>
-      <c r="N2">
-        <v>0.113504554559446</v>
-      </c>
-      <c r="O2">
-        <v>0.10691120372131201</v>
-      </c>
-      <c r="P2">
-        <v>0.11400192813468001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>0.10283323892542499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.66709627529320703</v>
+        <v>0.79348689436060305</v>
       </c>
       <c r="C3">
-        <v>0.33183741505321102</v>
+        <v>0.44144940344675199</v>
       </c>
       <c r="D3">
-        <v>0.44320760371623003</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">AVERAGE(F3:P3)</f>
-        <v>0.10726056719234651</v>
+        <v>0.56729131175468395</v>
       </c>
       <c r="F3">
-        <v>0.104601655081363</v>
-      </c>
-      <c r="G3">
-        <v>0.10292432343693</v>
-      </c>
-      <c r="H3">
-        <v>0.105973272795749</v>
-      </c>
-      <c r="I3">
-        <v>0.113371124596887</v>
-      </c>
-      <c r="J3">
-        <v>0.110369146694554</v>
-      </c>
-      <c r="K3">
-        <v>0.106528887703449</v>
-      </c>
-      <c r="L3">
-        <v>0.10805640742304599</v>
-      </c>
-      <c r="M3">
-        <v>0.104552413399642</v>
-      </c>
-      <c r="N3">
-        <v>0.113370954795108</v>
-      </c>
-      <c r="O3">
-        <v>0.102857485996737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+        <v>0.115424265423612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.63404185203493102</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="C4">
-        <v>0.28603285512525001</v>
+        <v>0.39781328847771202</v>
       </c>
       <c r="D4">
-        <v>0.39422190349349401</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.10736880100283144</v>
-      </c>
-      <c r="F4">
-        <v>0.11044192973846501</v>
+        <v>0.51581243184296599</v>
       </c>
       <c r="G4">
-        <v>0.107337509363042</v>
-      </c>
-      <c r="H4">
-        <v>0.10712375694022599</v>
-      </c>
-      <c r="I4">
-        <v>0.106832532433262</v>
-      </c>
-      <c r="J4">
-        <v>0.106383519417741</v>
-      </c>
-      <c r="K4">
-        <v>0.107251852826867</v>
-      </c>
-      <c r="L4">
-        <v>0.106987078190417</v>
-      </c>
-      <c r="M4">
-        <v>0.107119854110789</v>
-      </c>
-      <c r="N4">
-        <v>0.10684117600467399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+        <v>0.120973214553677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.62254213483146004</v>
+        <v>0.83128834355828196</v>
       </c>
       <c r="C5">
-        <v>0.27703125000000001</v>
+        <v>0.50371747211895901</v>
       </c>
       <c r="D5">
-        <v>0.38343425605536302</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.10840767788090638</v>
-      </c>
-      <c r="F5">
-        <v>0.112350545202816</v>
-      </c>
-      <c r="G5">
-        <v>0.107634205681666</v>
+        <v>0.62731481481481399</v>
       </c>
       <c r="H5">
-        <v>0.107708524108174</v>
-      </c>
-      <c r="I5">
-        <v>0.108246854658845</v>
-      </c>
-      <c r="J5">
-        <v>0.107904216394453</v>
-      </c>
-      <c r="K5">
-        <v>0.10767233746767001</v>
-      </c>
-      <c r="L5">
-        <v>0.10777804623607</v>
-      </c>
-      <c r="M5">
-        <v>0.107966693297557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+        <v>0.11312267223024799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.57379518072289104</v>
+        <v>0.66071428571428503</v>
       </c>
       <c r="C6">
-        <v>0.24411899313501101</v>
+        <v>0.247326203208556</v>
       </c>
       <c r="D6">
-        <v>0.34251589289154299</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.11131057321213114</v>
-      </c>
-      <c r="F6">
-        <v>0.11750688050210301</v>
-      </c>
-      <c r="G6">
-        <v>0.115801468074232</v>
-      </c>
-      <c r="H6">
-        <v>0.112157475602018</v>
+        <v>0.35992217898832601</v>
       </c>
       <c r="I6">
-        <v>0.106527894656009</v>
-      </c>
-      <c r="J6">
-        <v>0.107532365919377</v>
-      </c>
-      <c r="K6">
-        <v>0.110943519145719</v>
-      </c>
-      <c r="L6">
-        <v>0.10870440858546</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+        <v>0.12751375890564801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.53943139678615504</v>
+        <v>0.71779141104294397</v>
       </c>
       <c r="C7">
-        <v>0.22222222222222199</v>
+        <v>0.33717579250720398</v>
       </c>
       <c r="D7">
-        <v>0.31477207155222098</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.12157293735275</v>
-      </c>
-      <c r="F7">
-        <v>0.122053733858946</v>
-      </c>
-      <c r="G7">
-        <v>0.119548190402332</v>
-      </c>
-      <c r="H7">
-        <v>0.121282156204074</v>
-      </c>
-      <c r="I7">
-        <v>0.123236720188208</v>
+        <v>0.45882352941176402</v>
       </c>
       <c r="J7">
-        <v>0.12162263376012</v>
-      </c>
-      <c r="K7">
-        <v>0.12169418970282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+        <v>0.12800696188524299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.54369973190348497</v>
+        <v>0.76569037656903705</v>
       </c>
       <c r="C8">
-        <v>0.23103212576896701</v>
+        <v>0.33092224231464701</v>
       </c>
       <c r="D8">
-        <v>0.32427246562200102</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.119075749093387</v>
-      </c>
-      <c r="F8">
-        <v>0.124277657774073</v>
-      </c>
-      <c r="G8">
-        <v>0.121175834812197</v>
-      </c>
-      <c r="H8">
-        <v>0.117010630338788</v>
-      </c>
-      <c r="I8">
-        <v>0.116389489438465</v>
-      </c>
-      <c r="J8">
-        <v>0.116525133103412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+        <v>0.46212121212121199</v>
+      </c>
+      <c r="K8">
+        <v>0.13073755762482001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.53711790393013104</v>
+        <v>0.79864864864864804</v>
       </c>
       <c r="C9">
-        <v>0.22976338729763299</v>
+        <v>0.31519999999999998</v>
       </c>
       <c r="D9">
-        <v>0.32184910597470501</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.1239163673868755</v>
-      </c>
-      <c r="F9">
-        <v>0.12718891598123599</v>
-      </c>
-      <c r="G9">
-        <v>0.12551461040530601</v>
-      </c>
-      <c r="H9">
-        <v>0.122728541544408</v>
-      </c>
-      <c r="I9">
-        <v>0.12023340161655199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+        <v>0.45200764818355599</v>
+      </c>
+      <c r="L9">
+        <v>0.124709758982864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.52396166134185296</v>
+        <v>0.76119402985074602</v>
       </c>
       <c r="C10">
-        <v>0.21890016017084801</v>
+        <v>0.31240428790198999</v>
       </c>
       <c r="D10">
-        <v>0.30879307098474801</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.12706218702827399</v>
-      </c>
-      <c r="F10">
-        <v>0.12808871258440199</v>
-      </c>
-      <c r="G10">
-        <v>0.12727592906826099</v>
-      </c>
-      <c r="H10">
-        <v>0.12582191943215901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+        <v>0.44299674267100903</v>
+      </c>
+      <c r="M10">
+        <v>0.134892339960448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.52867184609692897</v>
+        <v>0.848751835535976</v>
       </c>
       <c r="C11">
-        <v>0.22671743614151901</v>
+        <v>0.53892773892773804</v>
       </c>
       <c r="D11">
-        <v>0.31734399289362603</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.12961938561876202</v>
-      </c>
-      <c r="F11">
-        <v>0.129617092075486</v>
-      </c>
-      <c r="G11">
-        <v>0.12962167916203801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+        <v>0.65925292272597602</v>
+      </c>
+      <c r="N11">
+        <v>0.12558681767805199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.52171395483497396</v>
+        <v>0.99779249448123597</v>
       </c>
       <c r="C12">
-        <v>0.223019801980198</v>
+        <v>0.78472222222222199</v>
       </c>
       <c r="D12">
-        <v>0.31246748742847202</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.13006659669316301</v>
-      </c>
-      <c r="F12">
-        <v>0.13006659669316301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+        <v>0.87852283770651096</v>
+      </c>
+      <c r="O12">
+        <v>0.12991684464452499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.57812726346349097</v>
+        <v>0.787955686843961</v>
       </c>
       <c r="C13">
-        <v>0.25667562930897803</v>
+        <v>0.42092756414374799</v>
       </c>
       <c r="D13">
-        <v>0.355177779690109</v>
+        <v>0.54229405510658202</v>
+      </c>
+      <c r="E13">
+        <v>0.10283323892542499</v>
       </c>
       <c r="F13">
-        <v>0.119242229873296</v>
+        <v>0.115424265423612</v>
       </c>
       <c r="G13">
-        <v>0.116310151960379</v>
+        <v>0.120973214553677</v>
       </c>
       <c r="H13">
-        <v>0.114755815657987</v>
+        <v>0.11312267223024799</v>
       </c>
       <c r="I13">
-        <v>0.113544219185392</v>
+        <v>0.12751375890564801</v>
       </c>
       <c r="J13">
-        <v>0.112179450176319</v>
+        <v>0.12800696188524299</v>
       </c>
       <c r="K13">
-        <v>0.11126187457244401</v>
+        <v>0.13073755762482001</v>
       </c>
       <c r="L13">
-        <v>0.10889565398215401</v>
+        <v>0.124709758982864</v>
       </c>
       <c r="M13">
-        <v>0.107398532168116</v>
+        <v>0.134892339960448</v>
       </c>
       <c r="N13">
-        <v>0.111238895119742</v>
+        <v>0.12558681767805199</v>
       </c>
       <c r="O13">
-        <v>0.10488434485902499</v>
+        <v>0.12991684464452499</v>
       </c>
       <c r="P13">
-        <v>0.11400192813468001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+        <f>AVERAGE(F13:O13)</f>
+        <v>0.12508841918891367</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.66732796032237995</v>
+        <v>0.99779249448123597</v>
       </c>
       <c r="C14">
-        <v>0.33275627550389503</v>
+        <v>0.78472222222222199</v>
       </c>
       <c r="D14">
-        <v>0.44407772597879402</v>
+        <v>0.87852283770651096</v>
       </c>
       <c r="E14">
-        <f>AVERAGE(F14:P14)</f>
-        <v>0.11903535660856347</v>
+        <v>0.10283323892542499</v>
       </c>
       <c r="F14">
-        <v>0.13006659669316301</v>
+        <v>0.115424265423612</v>
       </c>
       <c r="G14">
-        <v>0.12962167916203801</v>
+        <v>0.120973214553677</v>
       </c>
       <c r="H14">
-        <v>0.12582191943215901</v>
+        <v>0.11312267223024799</v>
       </c>
       <c r="I14">
-        <v>0.123236720188208</v>
+        <v>0.12751375890564801</v>
       </c>
       <c r="J14">
-        <v>0.12162263376012</v>
+        <v>0.12800696188524299</v>
       </c>
       <c r="K14">
-        <v>0.12169418970282</v>
+        <v>0.13073755762482001</v>
       </c>
       <c r="L14">
-        <v>0.11295232947577601</v>
+        <v>0.124709758982864</v>
       </c>
       <c r="M14">
-        <v>0.109955167864476</v>
+        <v>0.134892339960448</v>
       </c>
       <c r="N14">
-        <v>0.113504554559446</v>
+        <v>0.12558681767805199</v>
       </c>
       <c r="O14">
-        <v>0.10691120372131201</v>
-      </c>
-      <c r="P14">
-        <v>0.11400192813468001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+        <v>0.12991684464452499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>-1.6481383881122198E-2</v>
+        <v>1.39926956068455E-2</v>
       </c>
       <c r="C15">
-        <v>-1.1619845099083899E-2</v>
+        <v>1.51012343081712E-2</v>
       </c>
       <c r="D15">
-        <v>-1.41745987363556E-2</v>
-      </c>
-      <c r="F15">
-        <v>2.8402595748903501E-3</v>
-      </c>
-      <c r="G15">
-        <v>3.12668814562816E-3</v>
-      </c>
-      <c r="H15">
-        <v>2.24861011737473E-3</v>
-      </c>
-      <c r="I15">
-        <v>1.3048700895408E-3</v>
-      </c>
-      <c r="J15">
-        <v>1.01692186104523E-3</v>
-      </c>
-      <c r="K15">
-        <v>1.5638007011714501E-3</v>
-      </c>
-      <c r="L15">
-        <v>-8.7742029676077195E-4</v>
-      </c>
-      <c r="M15">
-        <v>-3.3979829896097299E-4</v>
-      </c>
-      <c r="N15">
-        <v>-3.3316892773861701E-3</v>
-      </c>
-      <c r="O15">
-        <v>-4.0537177245751699E-3</v>
-      </c>
-      <c r="P15" t="s">
+        <v>1.44341216819481E-2</v>
+      </c>
+      <c r="E15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="E16">
+        <v>21005</v>
+      </c>
       <c r="F16">
-        <v>21005</v>
+        <v>12951</v>
       </c>
       <c r="G16">
-        <v>12951</v>
+        <v>6588</v>
       </c>
       <c r="H16">
-        <v>6588</v>
+        <v>2664</v>
       </c>
       <c r="I16">
-        <v>2664</v>
+        <v>4105</v>
       </c>
       <c r="J16">
-        <v>4105</v>
+        <v>6071</v>
       </c>
       <c r="K16">
-        <v>6071</v>
+        <v>5036</v>
       </c>
       <c r="L16">
-        <v>5036</v>
+        <v>8378</v>
       </c>
       <c r="M16">
-        <v>8378</v>
+        <v>2959</v>
       </c>
       <c r="N16">
-        <v>2959</v>
+        <v>11802</v>
       </c>
       <c r="O16">
-        <v>11802</v>
-      </c>
-      <c r="P16">
         <v>3119</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>18</v>
       </c>
+      <c r="E17">
+        <v>4078</v>
+      </c>
       <c r="F17">
-        <v>4078</v>
+        <v>2246</v>
       </c>
       <c r="G17">
-        <v>2246</v>
+        <v>1180</v>
       </c>
       <c r="H17">
-        <v>1180</v>
+        <v>462</v>
       </c>
       <c r="I17">
-        <v>462</v>
+        <v>674</v>
       </c>
       <c r="J17">
-        <v>674</v>
+        <v>1029</v>
       </c>
       <c r="K17">
-        <v>1029</v>
+        <v>880</v>
       </c>
       <c r="L17">
-        <v>880</v>
+        <v>1440</v>
       </c>
       <c r="M17">
-        <v>1440</v>
+        <v>498</v>
       </c>
       <c r="N17">
-        <v>498</v>
+        <v>1443</v>
       </c>
       <c r="O17">
-        <v>1443</v>
-      </c>
-      <c r="P17">
         <v>470</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>5.1508092202059803</v>
+      </c>
       <c r="F18">
-        <v>5.1508092202059803</v>
+        <v>5.7662511130899299</v>
       </c>
       <c r="G18">
-        <v>5.7662511130899299</v>
+        <v>5.5830508474576197</v>
       </c>
       <c r="H18">
-        <v>5.5830508474576197</v>
+        <v>5.7662337662337597</v>
       </c>
       <c r="I18">
-        <v>5.7662337662337597</v>
+        <v>6.0905044510385702</v>
       </c>
       <c r="J18">
-        <v>6.0905044510385702</v>
+        <v>5.8999028182701601</v>
       </c>
       <c r="K18">
-        <v>5.8999028182701601</v>
+        <v>5.72272727272727</v>
       </c>
       <c r="L18">
-        <v>5.72272727272727</v>
+        <v>5.8180555555555502</v>
       </c>
       <c r="M18">
-        <v>5.8180555555555502</v>
+        <v>5.9417670682730899</v>
       </c>
       <c r="N18">
-        <v>5.9417670682730899</v>
+        <v>8.1787941787941794</v>
       </c>
       <c r="O18">
-        <v>8.1787941787941794</v>
-      </c>
-      <c r="P18">
         <v>6.6361702127659496</v>
       </c>
     </row>
@@ -9233,16 +6558,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
@@ -9256,39 +6580,36 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9297,50 +6618,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.68250851008117297</v>
+        <v>0.77046095954844696</v>
       </c>
       <c r="C2">
-        <v>0.322307406949425</v>
+        <v>0.40544554455445497</v>
       </c>
       <c r="D2">
-        <v>0.43784646396774701</v>
+        <v>0.53130068115471896</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(F2:P2)</f>
-        <v>0.11195804119067963</v>
-      </c>
-      <c r="F2">
-        <v>0.105925537430744</v>
-      </c>
-      <c r="G2">
-        <v>0.106619839837365</v>
-      </c>
-      <c r="H2">
-        <v>0.113737095075088</v>
-      </c>
-      <c r="I2">
-        <v>0.114567496310172</v>
-      </c>
-      <c r="J2">
-        <v>0.115667370572116</v>
-      </c>
-      <c r="K2">
-        <v>0.114224913989993</v>
-      </c>
-      <c r="L2">
-        <v>0.1139127144888</v>
-      </c>
-      <c r="M2">
-        <v>0.110651600795341</v>
-      </c>
-      <c r="N2">
-        <v>0.11427603189933599</v>
-      </c>
-      <c r="O2">
-        <v>0.10736200934774701</v>
-      </c>
-      <c r="P2">
-        <v>0.11459384335077399</v>
+        <v>8.8230935943398203E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -9348,47 +6635,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.68139187168682802</v>
+        <v>0.79396551724137898</v>
       </c>
       <c r="C3">
-        <v>0.32138735735350599</v>
+        <v>0.40698188245691502</v>
       </c>
       <c r="D3">
-        <v>0.436767588760618</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">AVERAGE(F3:P3)</f>
-        <v>0.1078015822743565</v>
+        <v>0.53812445223488103</v>
       </c>
       <c r="F3">
-        <v>0.105133263014265</v>
-      </c>
-      <c r="G3">
-        <v>0.10310938689499299</v>
-      </c>
-      <c r="H3">
-        <v>0.10636276044550901</v>
-      </c>
-      <c r="I3">
-        <v>0.11439623949531701</v>
-      </c>
-      <c r="J3">
-        <v>0.111041596395044</v>
-      </c>
-      <c r="K3">
-        <v>0.107057366701189</v>
-      </c>
-      <c r="L3">
-        <v>0.108721494594948</v>
-      </c>
-      <c r="M3">
-        <v>0.104987514400633</v>
-      </c>
-      <c r="N3">
-        <v>0.114157220016741</v>
-      </c>
-      <c r="O3">
-        <v>0.103048980784926</v>
+        <v>9.9910185953938496E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -9396,44 +6652,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.64567341242149301</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="C4">
-        <v>0.27510592432914499</v>
+        <v>0.391084945332211</v>
       </c>
       <c r="D4">
-        <v>0.385822256971592</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.10863531547877442</v>
-      </c>
-      <c r="F4">
-        <v>0.11173137479320699</v>
+        <v>0.51267916207276698</v>
       </c>
       <c r="G4">
-        <v>0.108401232376391</v>
-      </c>
-      <c r="H4">
-        <v>0.108345811501055</v>
-      </c>
-      <c r="I4">
-        <v>0.10846015022805</v>
-      </c>
-      <c r="J4">
-        <v>0.10754547082308299</v>
-      </c>
-      <c r="K4">
-        <v>0.108356843802043</v>
-      </c>
-      <c r="L4">
-        <v>0.10827086826196</v>
-      </c>
-      <c r="M4">
-        <v>0.108267534061877</v>
-      </c>
-      <c r="N4">
-        <v>0.108338553461304</v>
+        <v>0.109238810452056</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -9441,41 +6669,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.63424632010434101</v>
+        <v>0.84300341296928305</v>
       </c>
       <c r="C5">
-        <v>0.26593749999999999</v>
+        <v>0.45910780669144902</v>
       </c>
       <c r="D5">
-        <v>0.37474541751527402</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.10940989536101337</v>
-      </c>
-      <c r="F5">
-        <v>0.113774343944303</v>
-      </c>
-      <c r="G5">
-        <v>0.10854391551331501</v>
+        <v>0.59446450060168399</v>
       </c>
       <c r="H5">
-        <v>0.108685540962441</v>
-      </c>
-      <c r="I5">
-        <v>0.109029804244812</v>
-      </c>
-      <c r="J5">
-        <v>0.108879268655074</v>
-      </c>
-      <c r="K5">
-        <v>0.10867792967187299</v>
-      </c>
-      <c r="L5">
-        <v>0.108658606942862</v>
-      </c>
-      <c r="M5">
-        <v>0.109029752953427</v>
+        <v>9.1616569704009804E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -9483,38 +6686,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.58379501385041499</v>
+        <v>0.67123287671232801</v>
       </c>
       <c r="C6">
-        <v>0.23148741418764299</v>
+        <v>0.26203208556149699</v>
       </c>
       <c r="D6">
-        <v>0.33151995805204099</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.11216400230080041</v>
-      </c>
-      <c r="F6">
-        <v>0.11924688524705999</v>
-      </c>
-      <c r="G6">
-        <v>0.117378349732465</v>
-      </c>
-      <c r="H6">
-        <v>0.112620180717007</v>
+        <v>0.37692307692307597</v>
       </c>
       <c r="I6">
-        <v>0.107014617528452</v>
-      </c>
-      <c r="J6">
-        <v>0.108218838602008</v>
-      </c>
-      <c r="K6">
-        <v>0.111379968845469</v>
-      </c>
-      <c r="L6">
-        <v>0.109289175433142</v>
+        <v>0.109248905412447</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -9522,35 +6703,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.54710435014678405</v>
+        <v>0.7</v>
       </c>
       <c r="C7">
-        <v>0.208778898054791</v>
+        <v>0.32949087415946199</v>
       </c>
       <c r="D7">
-        <v>0.30222615361934202</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.12396269107163482</v>
-      </c>
-      <c r="F7">
-        <v>0.12415787669605299</v>
-      </c>
-      <c r="G7">
-        <v>0.12149109810651899</v>
-      </c>
-      <c r="H7">
-        <v>0.123977902098672</v>
-      </c>
-      <c r="I7">
-        <v>0.12535820209926099</v>
+        <v>0.44807315480078302</v>
       </c>
       <c r="J7">
-        <v>0.124479750777579</v>
-      </c>
-      <c r="K7">
-        <v>0.124311316651725</v>
+        <v>0.114740856415446</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -9558,32 +6720,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.55063657407407396</v>
+        <v>0.82965931863727405</v>
       </c>
       <c r="C8">
-        <v>0.21679197994987401</v>
+        <v>0.37432188065099398</v>
       </c>
       <c r="D8">
-        <v>0.31110021252247799</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.12053727908641321</v>
-      </c>
-      <c r="F8">
-        <v>0.12613608546779401</v>
-      </c>
-      <c r="G8">
-        <v>0.123100084605003</v>
-      </c>
-      <c r="H8">
-        <v>0.118280072824547</v>
-      </c>
-      <c r="I8">
-        <v>0.11743625862146601</v>
-      </c>
-      <c r="J8">
-        <v>0.117733893913256</v>
+        <v>0.51588785046728902</v>
+      </c>
+      <c r="K8">
+        <v>0.11075630045049301</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
@@ -9591,29 +6737,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.54319041614123498</v>
+        <v>0.87533875338753298</v>
       </c>
       <c r="C9">
-        <v>0.21457036114570299</v>
+        <v>0.34453333333333303</v>
       </c>
       <c r="D9">
-        <v>0.30762363863595699</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.12587885873694674</v>
-      </c>
-      <c r="F9">
-        <v>0.12908129571610599</v>
-      </c>
-      <c r="G9">
-        <v>0.12771133507678001</v>
-      </c>
-      <c r="H9">
-        <v>0.124938681789831</v>
-      </c>
-      <c r="I9">
-        <v>0.12178412236507</v>
+        <v>0.49445082280903102</v>
+      </c>
+      <c r="L9">
+        <v>0.102289903729141</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -9621,26 +6754,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.52755632582322298</v>
+        <v>0.82129277566539904</v>
       </c>
       <c r="C10">
-        <v>0.20315002669514101</v>
+        <v>0.33078101071975402</v>
       </c>
       <c r="D10">
-        <v>0.29334104269056499</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.129424877002734</v>
-      </c>
-      <c r="F10">
-        <v>0.13024267917829899</v>
-      </c>
-      <c r="G10">
-        <v>0.129611174652036</v>
-      </c>
-      <c r="H10">
-        <v>0.12842077717786701</v>
+        <v>0.47161572052401701</v>
+      </c>
+      <c r="M10">
+        <v>0.112667772373268</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
@@ -9648,23 +6771,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.53180354267310703</v>
+        <v>0.91091954022988497</v>
       </c>
       <c r="C11">
-        <v>0.20958273837854899</v>
+        <v>0.59114219114219102</v>
       </c>
       <c r="D11">
-        <v>0.30067144645499</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.13157641714950252</v>
-      </c>
-      <c r="F11">
-        <v>0.13184726290403401</v>
-      </c>
-      <c r="G11">
-        <v>0.13130557139497101</v>
+        <v>0.71699180096126602</v>
+      </c>
+      <c r="N11">
+        <v>8.5501176427310102E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
@@ -9672,20 +6788,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.51851851851851805</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.204455445544554</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.29327179123024999</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.13295601996107301</v>
-      </c>
-      <c r="F12">
-        <v>0.13295601996107301</v>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>8.1585150770242407E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
@@ -9693,46 +6805,50 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.58603862322919897</v>
+        <v>0.72362483221741203</v>
       </c>
       <c r="C13">
-        <v>0.243050459326212</v>
+        <v>0.35408377769111499</v>
       </c>
       <c r="D13">
-        <v>0.34317599731098702</v>
+        <v>0.47277374750450102</v>
+      </c>
+      <c r="E13">
+        <v>8.8230935943398203E-2</v>
       </c>
       <c r="F13">
-        <v>0.12093023857754</v>
+        <v>9.9910185953938496E-2</v>
       </c>
       <c r="G13">
-        <v>0.117727198818984</v>
+        <v>0.109238810452056</v>
       </c>
       <c r="H13">
-        <v>0.11615209139911301</v>
+        <v>9.1616569704009804E-2</v>
       </c>
       <c r="I13">
-        <v>0.11475586136157501</v>
+        <v>0.109248905412447</v>
       </c>
       <c r="J13">
-        <v>0.11336659853402301</v>
+        <v>0.114740856415446</v>
       </c>
       <c r="K13">
-        <v>0.11233472327704901</v>
+        <v>0.11075630045049301</v>
       </c>
       <c r="L13">
-        <v>0.109770571944342</v>
+        <v>0.102289903729141</v>
       </c>
       <c r="M13">
-        <v>0.10823410055282</v>
+        <v>0.112667772373268</v>
       </c>
       <c r="N13">
-        <v>0.11225726845912699</v>
+        <v>8.5501176427310102E-2</v>
       </c>
       <c r="O13">
-        <v>0.105205495066336</v>
+        <v>8.1585150770242407E-2</v>
       </c>
       <c r="P13">
-        <v>0.11459384335077399</v>
+        <f>AVERAGE(E13:O13)</f>
+        <v>0.10052605160288636</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -9740,50 +6856,46 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.68250851008117297</v>
+        <v>0.91091954022988497</v>
       </c>
       <c r="C14">
-        <v>0.322307406949425</v>
+        <v>0.59114219114219102</v>
       </c>
       <c r="D14">
-        <v>0.43784646396774701</v>
+        <v>0.71699180096126602</v>
       </c>
       <c r="E14">
-        <f>AVERAGE(F14:P14)</f>
-        <v>0.12069343981313399</v>
+        <v>8.8230935943398203E-2</v>
       </c>
       <c r="F14">
-        <v>0.13295601996107301</v>
+        <v>9.9910185953938496E-2</v>
       </c>
       <c r="G14">
-        <v>0.13130557139497101</v>
+        <v>0.109238810452056</v>
       </c>
       <c r="H14">
-        <v>0.12842077717786701</v>
+        <v>9.1616569704009804E-2</v>
       </c>
       <c r="I14">
-        <v>0.12535820209926099</v>
+        <v>0.109248905412447</v>
       </c>
       <c r="J14">
-        <v>0.124479750777579</v>
+        <v>0.114740856415446</v>
       </c>
       <c r="K14">
-        <v>0.124311316651725</v>
+        <v>0.11075630045049301</v>
       </c>
       <c r="L14">
-        <v>0.1139127144888</v>
+        <v>0.102289903729141</v>
       </c>
       <c r="M14">
-        <v>0.110651600795341</v>
+        <v>0.112667772373268</v>
       </c>
       <c r="N14">
-        <v>0.11427603189933599</v>
+        <v>8.5501176427310102E-2</v>
       </c>
       <c r="O14">
-        <v>0.10736200934774701</v>
-      </c>
-      <c r="P14">
-        <v>0.11459384335077399</v>
+        <v>8.1585150770242407E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -9791,45 +6903,45 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>-1.80720434669592E-2</v>
+        <v>-2.6631938691187001E-2</v>
       </c>
       <c r="C15">
-        <v>-1.2452506252477701E-2</v>
+        <v>-1.4439613122684301E-2</v>
       </c>
       <c r="D15">
-        <v>-1.5448771627647901E-2</v>
-      </c>
-      <c r="F15">
-        <v>3.04586753754848E-3</v>
-      </c>
-      <c r="G15">
-        <v>3.3455507119322602E-3</v>
-      </c>
-      <c r="H15">
-        <v>2.4937229371215799E-3</v>
-      </c>
-      <c r="I15">
-        <v>1.3618505584797201E-3</v>
-      </c>
-      <c r="J15">
-        <v>1.2053302345505501E-3</v>
-      </c>
-      <c r="K15">
-        <v>1.82059730318085E-3</v>
-      </c>
-      <c r="L15">
-        <v>-9.3099657634029495E-4</v>
-      </c>
-      <c r="M15">
-        <v>-1.5855238645007399E-4</v>
-      </c>
-      <c r="N15">
-        <v>-2.9687392190159601E-3</v>
-      </c>
-      <c r="O15">
-        <v>-4.31302856282128E-3</v>
-      </c>
-      <c r="P15" t="s">
+        <v>-1.9320790159594502E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9837,110 +6949,110 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="E16">
+        <v>21005</v>
+      </c>
       <c r="F16">
-        <v>21005</v>
+        <v>12951</v>
       </c>
       <c r="G16">
-        <v>12951</v>
+        <v>6588</v>
       </c>
       <c r="H16">
-        <v>6588</v>
+        <v>2664</v>
       </c>
       <c r="I16">
-        <v>2664</v>
+        <v>4105</v>
       </c>
       <c r="J16">
-        <v>4105</v>
+        <v>6071</v>
       </c>
       <c r="K16">
-        <v>6071</v>
+        <v>5036</v>
       </c>
       <c r="L16">
-        <v>5036</v>
+        <v>8378</v>
       </c>
       <c r="M16">
-        <v>8378</v>
+        <v>2959</v>
       </c>
       <c r="N16">
-        <v>2959</v>
+        <v>11802</v>
       </c>
       <c r="O16">
-        <v>11802</v>
-      </c>
-      <c r="P16">
         <v>3119</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>18</v>
       </c>
+      <c r="E17">
+        <v>4078</v>
+      </c>
       <c r="F17">
-        <v>4078</v>
+        <v>2246</v>
       </c>
       <c r="G17">
-        <v>2246</v>
+        <v>1180</v>
       </c>
       <c r="H17">
-        <v>1180</v>
+        <v>462</v>
       </c>
       <c r="I17">
-        <v>462</v>
+        <v>674</v>
       </c>
       <c r="J17">
-        <v>674</v>
+        <v>1029</v>
       </c>
       <c r="K17">
-        <v>1029</v>
+        <v>880</v>
       </c>
       <c r="L17">
-        <v>880</v>
+        <v>1440</v>
       </c>
       <c r="M17">
-        <v>1440</v>
+        <v>498</v>
       </c>
       <c r="N17">
-        <v>498</v>
+        <v>1443</v>
       </c>
       <c r="O17">
-        <v>1443</v>
-      </c>
-      <c r="P17">
         <v>470</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>5.1508092202059803</v>
+      </c>
       <c r="F18">
-        <v>5.1508092202059803</v>
+        <v>5.7662511130899299</v>
       </c>
       <c r="G18">
-        <v>5.7662511130899299</v>
+        <v>5.5830508474576197</v>
       </c>
       <c r="H18">
-        <v>5.5830508474576197</v>
+        <v>5.7662337662337597</v>
       </c>
       <c r="I18">
-        <v>5.7662337662337597</v>
+        <v>6.0905044510385702</v>
       </c>
       <c r="J18">
-        <v>6.0905044510385702</v>
+        <v>5.8999028182701601</v>
       </c>
       <c r="K18">
-        <v>5.8999028182701601</v>
+        <v>5.72272727272727</v>
       </c>
       <c r="L18">
-        <v>5.72272727272727</v>
+        <v>5.8180555555555502</v>
       </c>
       <c r="M18">
-        <v>5.8180555555555502</v>
+        <v>5.9417670682730899</v>
       </c>
       <c r="N18">
-        <v>5.9417670682730899</v>
+        <v>8.1787941787941794</v>
       </c>
       <c r="O18">
-        <v>8.1787941787941794</v>
-      </c>
-      <c r="P18">
         <v>6.6361702127659496</v>
       </c>
     </row>
